--- a/data/nzd0576/nzd0576.xlsx
+++ b/data/nzd0576/nzd0576.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F932"/>
+  <dimension ref="A1:F940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21953,6 +21953,196 @@
         <v>202.1</v>
       </c>
       <c r="F932" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>224.49</v>
+      </c>
+      <c r="C933" t="n">
+        <v>217.27</v>
+      </c>
+      <c r="D933" t="n">
+        <v>219.27</v>
+      </c>
+      <c r="E933" t="n">
+        <v>213.35</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>215.08</v>
+      </c>
+      <c r="C934" t="n">
+        <v>213.77</v>
+      </c>
+      <c r="D934" t="n">
+        <v>216.66</v>
+      </c>
+      <c r="E934" t="n">
+        <v>202.82</v>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>219.53</v>
+      </c>
+      <c r="C935" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="D935" t="n">
+        <v>214.56</v>
+      </c>
+      <c r="E935" t="n">
+        <v>208.75</v>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:07:29+00:00</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>218.16</v>
+      </c>
+      <c r="C936" t="n">
+        <v>222.65</v>
+      </c>
+      <c r="D936" t="n">
+        <v>217.2</v>
+      </c>
+      <c r="E936" t="n">
+        <v>214.07</v>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:22+00:00</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>218.06</v>
+      </c>
+      <c r="C937" t="n">
+        <v>218.09</v>
+      </c>
+      <c r="D937" t="n">
+        <v>216.4</v>
+      </c>
+      <c r="E937" t="n">
+        <v>194.73</v>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>222.85</v>
+      </c>
+      <c r="C938" t="n">
+        <v>216.36</v>
+      </c>
+      <c r="D938" t="n">
+        <v>217.27</v>
+      </c>
+      <c r="E938" t="n">
+        <v>204.67</v>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:07:36+00:00</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>220.13</v>
+      </c>
+      <c r="C939" t="n">
+        <v>220.69</v>
+      </c>
+      <c r="D939" t="n">
+        <v>216.99</v>
+      </c>
+      <c r="E939" t="n">
+        <v>212.32</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>212.16</v>
+      </c>
+      <c r="C940" t="n">
+        <v>221.75</v>
+      </c>
+      <c r="D940" t="n">
+        <v>210.27</v>
+      </c>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21969,7 +22159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1060"/>
+  <dimension ref="A1:B1068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32577,6 +32767,86 @@
       </c>
       <c r="B1060" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -32738,19 +33008,35 @@
         <v>0.175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1627</v>
+        <v>0.1634</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1917</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>0.1926</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1741726850333254</v>
+      </c>
+      <c r="J2" t="n">
+        <v>939</v>
+      </c>
+      <c r="K2" t="n">
+        <v>818</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0266816901762218</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.187108461124143</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61.80251127807939</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.861457325336022</v>
+      </c>
+      <c r="P2" t="n">
+        <v>213.9709240067866</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
@@ -32794,19 +33080,35 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1824</v>
+        <v>0.1829</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.1302875855606159</v>
+      </c>
+      <c r="J3" t="n">
+        <v>939</v>
+      </c>
+      <c r="K3" t="n">
+        <v>843</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0182441490169174</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.737255861056361</v>
+      </c>
+      <c r="N3" t="n">
+        <v>51.28011465981432</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.161013521828758</v>
+      </c>
+      <c r="P3" t="n">
+        <v>219.4201441793335</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
@@ -32850,19 +33152,35 @@
         <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.183</v>
+        <v>0.1831</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.1095445848388141</v>
+      </c>
+      <c r="J4" t="n">
+        <v>939</v>
+      </c>
+      <c r="K4" t="n">
+        <v>860</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01277755992677232</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.918151633753159</v>
+      </c>
+      <c r="N4" t="n">
+        <v>53.44019856562213</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.310280334270508</v>
+      </c>
+      <c r="P4" t="n">
+        <v>221.8946477544643</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
@@ -32906,19 +33224,35 @@
         <v>0.18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1672</v>
+        <v>0.1648</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1949</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>0.1926</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02232715295716264</v>
+      </c>
+      <c r="J5" t="n">
+        <v>939</v>
+      </c>
+      <c r="K5" t="n">
+        <v>807</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0004998181612629882</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5.760406283075878</v>
+      </c>
+      <c r="N5" t="n">
+        <v>56.02924513758415</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.485268541447538</v>
+      </c>
+      <c r="P5" t="n">
+        <v>216.6173012914228</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
@@ -32955,7 +33289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F932"/>
+  <dimension ref="A1:F940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61079,6 +61413,258 @@
         </is>
       </c>
     </row>
+    <row r="933">
+      <c r="A933" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>-41.026852840666635,173.02005550303906</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>-41.026246228797284,173.01953463357142</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>-41.02560039973303,173.01911829710892</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>-41.02500512094612,173.0188197967291</t>
+        </is>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>-41.026892478518754,173.01995656056178</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>-41.026260971733016,173.01949783267276</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>-41.025611115506955,173.01909066318646</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>-41.02500511924914,173.01869454357848</t>
+        </is>
+      </c>
+      <c r="F934" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>-41.02687373374276,173.02000335058972</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>-41.026233465617686,173.01956649262186</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>-41.02561973738919,173.01906842898944</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>-41.02500512022154,173.01876508025305</t>
+        </is>
+      </c>
+      <c r="F935" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:07:29+00:00</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>-41.02687950460842,173.01998894557272</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>-41.02622356677593,173.0195912017779</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>-41.025608898450834,173.01909638055045</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>-41.02500512105717,173.01882836104713</t>
+        </is>
+      </c>
+      <c r="F936" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:22+00:00</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>-41.0268799258394,173.01998789411152</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>-41.02624277473635,173.01954325549386</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>-41.02561218297832,173.01908791038142</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>-41.02500511785293,173.0185983139499</t>
+        </is>
+      </c>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>-41.02685974886377,173.02003825908767</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>-41.026250061961704,173.01952506533934</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>-41.02560861105464,173.0190971216902</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>-41.025005119557136,173.01871654911776</t>
+        </is>
+      </c>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-14 22:07:36+00:00</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>-41.02687120635578,173.02000965935554</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>-41.02623182283155,173.0195705932908</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>-41.02560976063936,173.01909415713115</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>-41.025005120786126,173.01880754499643</t>
+        </is>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>-41.026904778451296,173.01992585787733</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>-41.02622735782234,173.01958173869775</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>-41.025637350649546,173.01902300768324</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
